--- a/credentials.xlsx
+++ b/credentials.xlsx
@@ -14,27 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
-  <si>
-    <t>ALLAHisgr8</t>
-  </si>
-  <si>
-    <t>Display@11</t>
-  </si>
-  <si>
-    <t>naweed1190@gmail.com</t>
-  </si>
-  <si>
-    <t>usamaquantum1</t>
-  </si>
-  <si>
-    <t>onceptual.4@gmail.com</t>
-  </si>
-  <si>
-    <t>03009285634</t>
-  </si>
-  <si>
-    <t>onceptual.8@gmail.com</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>yourPassword2</t>
+  </si>
+  <si>
+    <t>yourPassword1</t>
+  </si>
+  <si>
+    <t>yourPassword3</t>
+  </si>
+  <si>
+    <t>yourPassword4</t>
+  </si>
+  <si>
+    <t>yourEmail1</t>
+  </si>
+  <si>
+    <t>yourEmail2</t>
+  </si>
+  <si>
+    <t>yourEmail3</t>
+  </si>
+  <si>
+    <t>yourEmail4</t>
   </si>
 </sst>
 </file>
@@ -392,7 +395,7 @@
   <dimension ref="A2:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,7 +406,7 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -411,36 +414,33 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
-    <hyperlink ref="A4" r:id="rId2" display="naweed1190@gmail.com"/>
-    <hyperlink ref="A5" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4" display="Display@11"/>
-    <hyperlink ref="A2" r:id="rId5"/>
-    <hyperlink ref="B2" r:id="rId6"/>
+    <hyperlink ref="A2" r:id="rId1" display="naweed1190@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId2" display="Display@11"/>
+    <hyperlink ref="A3:A5" r:id="rId3" display="naweed1190@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
